--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,60 +1,901 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B88 Selenium\Day26 06-11-2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E07047-9032-43DB-BCB9-A90B5A1D3B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin_myschool" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin_edison" sheetId="6" r:id="rId2"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId3"/>
+    <sheet name="AddStudent" sheetId="3" r:id="rId4"/>
+    <sheet name="AddInstitution" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Akshara</t>
-  </si>
-  <si>
-    <t>Swara</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="165">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>executive@codewave.com</t>
+  </si>
+  <si>
+    <t>Executive@12</t>
+  </si>
+  <si>
+    <t>mithun@codewave.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>codewave</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>executive</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Pin Code</t>
+  </si>
+  <si>
+    <t>Preferred Address</t>
+  </si>
+  <si>
+    <t>Present Address</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Admission Date</t>
+  </si>
+  <si>
+    <t>Admission Year</t>
+  </si>
+  <si>
+    <t>GradeOrClass</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>House_Team</t>
+  </si>
+  <si>
+    <t>Mother_Tounge</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>student1011102@gmail.com</t>
+  </si>
+  <si>
+    <t>Amulscs</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>9111110002</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Tumakuru</t>
+  </si>
+  <si>
+    <t>572101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APMC </t>
+  </si>
+  <si>
+    <t>same as prefered address</t>
+  </si>
+  <si>
+    <t>20 Jan, 2018</t>
+  </si>
+  <si>
+    <t>18 Nov, 2023</t>
+  </si>
+  <si>
+    <t>October/2023-October/2024</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>student1003@gmail.com</t>
+  </si>
+  <si>
+    <t>Soham</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>9388330003</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Trivandrum</t>
+  </si>
+  <si>
+    <t>605036</t>
+  </si>
+  <si>
+    <t>Rajagopala nagar</t>
+  </si>
+  <si>
+    <t>25 Mar, 2017</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>student1004@gmail.com</t>
+  </si>
+  <si>
+    <t>Bhatia</t>
+  </si>
+  <si>
+    <t>9988330004</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Vijayawada</t>
+  </si>
+  <si>
+    <t>302355</t>
+  </si>
+  <si>
+    <t>Aknuru</t>
+  </si>
+  <si>
+    <t>02 Feb, 2016</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>NameOfInstitute</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>TenantId</t>
+  </si>
+  <si>
+    <t>AffiliationNo</t>
+  </si>
+  <si>
+    <t>TagLine</t>
+  </si>
+  <si>
+    <t>ThemeCode</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>Street2</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Malabar Institute</t>
+  </si>
+  <si>
+    <t>2220011110</t>
+  </si>
+  <si>
+    <t>malabarInstitute@g.com</t>
+  </si>
+  <si>
+    <t>malabar</t>
+  </si>
+  <si>
+    <t>Malabar&amp;12</t>
+  </si>
+  <si>
+    <t>33322</t>
+  </si>
+  <si>
+    <t>Swan</t>
+  </si>
+  <si>
+    <t>Theme 1 (background emerald)</t>
+  </si>
+  <si>
+    <t>www.malabar.com</t>
+  </si>
+  <si>
+    <t>Cherthala</t>
+  </si>
+  <si>
+    <t>Main Road</t>
+  </si>
+  <si>
+    <t>Hangman road</t>
+  </si>
+  <si>
+    <t>222205</t>
+  </si>
+  <si>
+    <t>ICSE</t>
+  </si>
+  <si>
+    <t>Mangalore Institute</t>
+  </si>
+  <si>
+    <t>2130000322</t>
+  </si>
+  <si>
+    <t>Mangalore@g.com</t>
+  </si>
+  <si>
+    <t>redmine</t>
+  </si>
+  <si>
+    <t>Manglor&amp;4</t>
+  </si>
+  <si>
+    <t>29311</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Theme 3 (background cyan)</t>
+  </si>
+  <si>
+    <t>www.finoma.org</t>
+  </si>
+  <si>
+    <t>Mangaluru</t>
+  </si>
+  <si>
+    <t>Temple Road</t>
+  </si>
+  <si>
+    <t>Veedhi</t>
+  </si>
+  <si>
+    <t>689924</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t>Gem ocean</t>
+  </si>
+  <si>
+    <t>1162221110</t>
+  </si>
+  <si>
+    <t>Gemcean@g.com</t>
+  </si>
+  <si>
+    <t>greenocean</t>
+  </si>
+  <si>
+    <t>GemOce&amp;12</t>
+  </si>
+  <si>
+    <t>711111</t>
+  </si>
+  <si>
+    <t>Honour</t>
+  </si>
+  <si>
+    <t>www.gemocean.com</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Balisana</t>
+  </si>
+  <si>
+    <t>Loayle Road</t>
+  </si>
+  <si>
+    <t>MAin Road</t>
+  </si>
+  <si>
+    <t>171222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pw, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameOfInstitute, </t>
+  </si>
+  <si>
+    <t>Name Of Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TenantId, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AffiliationNo, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TagLine, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThemeCode, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street2, </t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>student1005@gmail.com</t>
+  </si>
+  <si>
+    <t>Suren</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Anna Nagar</t>
+  </si>
+  <si>
+    <t>30 Jul, 2016</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>student1006@gmail.com</t>
+  </si>
+  <si>
+    <t>Mulla</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Rajajinagar</t>
+  </si>
+  <si>
+    <t>14 Mar, 2017</t>
+  </si>
+  <si>
+    <t>student1007@gmail.com</t>
+  </si>
+  <si>
+    <t>Kanti</t>
+  </si>
+  <si>
+    <t>Tumkur</t>
+  </si>
+  <si>
+    <t>Sharada colony</t>
+  </si>
+  <si>
+    <t>16 Jan, 2016</t>
+  </si>
+  <si>
+    <t>student1008@gmail.com</t>
+  </si>
+  <si>
+    <t>Sumi</t>
+  </si>
+  <si>
+    <t>Dollars Colony</t>
+  </si>
+  <si>
+    <t>20 Sep, 2017</t>
+  </si>
+  <si>
+    <t>student1009@gmail.com</t>
+  </si>
+  <si>
+    <t>Rai</t>
+  </si>
+  <si>
+    <t>DMK Road</t>
+  </si>
+  <si>
+    <t>11 Oct, 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -62,24 +903,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -128,7 +1280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -163,7 +1315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -337,36 +1489,1245 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="13.6363636363636" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="13.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mithun@codewave.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="13.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="executive"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="$A5:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="13.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="18.5454545454545" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="17.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="8" customWidth="1"/>
+    <col min="8" max="8" width="23.5454545454545" customWidth="1"/>
+    <col min="9" max="9" width="15.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="11.4545454545455" customWidth="1"/>
+    <col min="11" max="11" width="17" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.5454545454545" customWidth="1"/>
+    <col min="13" max="13" width="24.5454545454545" customWidth="1"/>
+    <col min="14" max="14" width="12.7272727272727" customWidth="1"/>
+    <col min="15" max="15" width="15.2727272727273" customWidth="1"/>
+    <col min="16" max="16" width="27.1818181818182" customWidth="1"/>
+    <col min="17" max="17" width="13.2727272727273" customWidth="1"/>
+    <col min="19" max="19" width="11.8181818181818" customWidth="1"/>
+    <col min="20" max="20" width="15.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" spans="1:20">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="student1011102@gmail.com" tooltip="mailto:student1011102@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="student1003@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId2" display="student1004@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="23.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="19.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="11.7272727272727"/>
+    <col min="5" max="5" width="16.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="15.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="17.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="12.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="21.9090909090909" customWidth="1"/>
+    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
+    <col min="11" max="11" width="16.5454545454545" customWidth="1"/>
+    <col min="13" max="13" width="15.5454545454545" customWidth="1"/>
+    <col min="14" max="14" width="10.5454545454545" customWidth="1"/>
+    <col min="15" max="15" width="11.3636363636364" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="8.72727272727273" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="mithun@codewave.com"/>
+    <hyperlink ref="G3" r:id="rId2" display="Manglor&amp;4"/>
+    <hyperlink ref="E3" r:id="rId3" display="Mangalore@g.com" tooltip="mailto:Mangalore@g.com"/>
+    <hyperlink ref="A4" r:id="rId1" display="mithun@codewave.com"/>
+    <hyperlink ref="E4" r:id="rId4" display="Gemcean@g.com" tooltip="mailto:Gemcean@g.com"/>
+    <hyperlink ref="G4" r:id="rId5" display="GemOce&amp;12" tooltip="mailto:Blueoc@12"/>
+    <hyperlink ref="K4" r:id="rId6" display="www.gemocean.com" tooltip="http://www.gemocean.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="mithun@codewave.com"/>
+    <hyperlink ref="E2" r:id="rId7" display="malabarInstitute@g.com" tooltip="mailto:malabarInstitute@g.com"/>
+    <hyperlink ref="G2" r:id="rId5" display="Malabar&amp;12" tooltip="mailto:Blueoc@12"/>
+    <hyperlink ref="K2" r:id="rId8" display="www.malabar.com" tooltip="http://www.malabar.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U44"/>
+  <sheetViews>
+    <sheetView topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="17.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>1004</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9988330004</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19">
+        <v>302355</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>1005</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9988330005</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20">
+        <v>600001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>1006</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9988330006</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21">
+        <v>560010</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>1007</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9988330007</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22">
+        <v>572101</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>1008</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9988330008</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23">
+        <v>560010</v>
+      </c>
+      <c r="J23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>160</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>1009</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9988330009</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24">
+        <v>600001</v>
+      </c>
+      <c r="J24" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="3"/>
+      <c r="C30"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="3"/>
+      <c r="C31"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="3"/>
+      <c r="C32"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" display="student1005@gmail.com"/>
+    <hyperlink ref="B21" r:id="rId1" display="student1006@gmail.com"/>
+    <hyperlink ref="B22" r:id="rId1" display="student1007@gmail.com"/>
+    <hyperlink ref="B23" r:id="rId1" display="student1008@gmail.com"/>
+    <hyperlink ref="B19" r:id="rId1" display="student1004@gmail.com"/>
+    <hyperlink ref="B24" r:id="rId1" display="student1009@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>